--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample06/Sample-06.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample06/Sample-06.xlsx
@@ -152,10 +152,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="rw2ttrgx" xfId="1"/>
-    <cellStyle name="rw2ttrgx_Alternate" xfId="2"/>
-    <cellStyle name="yzkiwkz3" xfId="3"/>
-    <cellStyle name="yzkiwkz3_Alternate" xfId="4"/>
+    <cellStyle name="4ornt5cg" xfId="1"/>
+    <cellStyle name="4ornt5cg_Alternate" xfId="2"/>
+    <cellStyle name="gge3iucq" xfId="3"/>
+    <cellStyle name="gge3iucq_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample06/Sample-06.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample06/Sample-06.xlsx
@@ -152,10 +152,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="4ornt5cg" xfId="1"/>
-    <cellStyle name="4ornt5cg_Alternate" xfId="2"/>
-    <cellStyle name="gge3iucq" xfId="3"/>
-    <cellStyle name="gge3iucq_Alternate" xfId="4"/>
+    <cellStyle name="4kwss4ai" xfId="1"/>
+    <cellStyle name="4kwss4ai_Alternate" xfId="2"/>
+    <cellStyle name="emedype3" xfId="3"/>
+    <cellStyle name="emedype3_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
